--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>tech</t>
   </si>
@@ -53,22 +53,7 @@
     <t>output_comm</t>
   </si>
   <si>
-    <t>HH2_NGA_CL_NEW</t>
-  </si>
-  <si>
-    <t>HH2_NGA_DM_NEW</t>
-  </si>
-  <si>
-    <t>HH2_COA_CL_NEW</t>
-  </si>
-  <si>
-    <t>HH2_OIL_CT_NEW</t>
-  </si>
-  <si>
-    <t>HH2_WE_PEM_CL_NEW</t>
-  </si>
-  <si>
-    <t>HH2_WE_SOEC_CL_NEW</t>
+    <t>HH2_BIO_SR_C_NEW</t>
   </si>
   <si>
     <t>HH2_NGA_CL_CCS_NEW</t>
@@ -77,16 +62,10 @@
     <t>HH2_COA_CL_CCS_NEW</t>
   </si>
   <si>
+    <t>HH2_CT</t>
+  </si>
+  <si>
     <t>HH2_CU</t>
-  </si>
-  <si>
-    <t>HH2_DT</t>
-  </si>
-  <si>
-    <t>HH2_CT</t>
-  </si>
-  <si>
-    <t>HH2_WE_CU</t>
   </si>
 </sst>
 </file>
@@ -492,7 +471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -550,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34.05887999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.43047296</v>
       </c>
       <c r="I2">
-        <v>222.6929834266084</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1371.303168080771</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3377.973917120305</v>
+        <v>261.4909438674659</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -579,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -597,16 +576,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>94.19302600772187</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>25.35966084823281</v>
+        <v>48.19162504989928</v>
       </c>
       <c r="K3">
-        <v>25.35966084823281</v>
+        <v>1151.699337049899</v>
       </c>
       <c r="L3">
-        <v>19.86033158886471</v>
+        <v>1922.073598715951</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -617,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -632,209 +611,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.009684439608269856</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.009684439608269858</v>
+        <v>34.05887999999999</v>
       </c>
       <c r="J4">
-        <v>0.008473884657236124</v>
+        <v>163.5410789501007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>163.5410789501007</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1118.666762459719</v>
-      </c>
-      <c r="K5">
-        <v>130.1650626216645</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>5.310608467917515</v>
-      </c>
-      <c r="K6">
-        <v>5.310608467917515</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1.602634604180673</v>
-      </c>
-      <c r="L7">
-        <v>269.2797573451451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>657.620208</v>
-      </c>
-      <c r="L8">
-        <v>2593.598821694697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1237.983922178138</v>
+        <v>914.3826836093106</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.05887999999999</v>
+        <v>34.05888</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.43047296</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>261.4909438674659</v>
+        <v>254.5502932645589</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>48.19162504989928</v>
+        <v>50.78633435001169</v>
       </c>
       <c r="K3">
-        <v>1151.699337049899</v>
+        <v>1154.294046349979</v>
       </c>
       <c r="L3">
-        <v>1922.073598715951</v>
+        <v>1902.694956493259</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.05887999999999</v>
+        <v>34.05888</v>
       </c>
       <c r="J4">
-        <v>163.5410789501007</v>
+        <v>160.9463696499883</v>
       </c>
       <c r="K4">
-        <v>163.5410789501007</v>
+        <v>160.9463696499883</v>
       </c>
       <c r="L4">
-        <v>914.3826836093106</v>
+        <v>906.1928092224059</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.05888</v>
+        <v>34.05887999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>254.5502932645589</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>50.78633435001169</v>
+        <v>177.673824</v>
       </c>
       <c r="K3">
-        <v>1154.294046349979</v>
+        <v>1281.181536</v>
       </c>
       <c r="L3">
-        <v>1902.694956493259</v>
+        <v>6185.342524608289</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -617,13 +617,13 @@
         <v>34.05888</v>
       </c>
       <c r="J4">
-        <v>160.9463696499883</v>
+        <v>34.05888</v>
       </c>
       <c r="K4">
-        <v>160.9463696499883</v>
+        <v>34.05888</v>
       </c>
       <c r="L4">
-        <v>906.1928092224059</v>
+        <v>1082.329036961193</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.05887999999999</v>
+        <v>34.05888</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>177.673824</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1281.181536</v>
+        <v>810.3494229786608</v>
       </c>
       <c r="L3">
-        <v>6185.342524608289</v>
+        <v>1501.629429327508</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -617,13 +617,13 @@
         <v>34.05888</v>
       </c>
       <c r="J4">
-        <v>34.05888</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>34.05888</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1082.329036961193</v>
+        <v>0.7152364799999911</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>tech</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>HH2_COA_CL_CCS_NEW</t>
+  </si>
+  <si>
+    <t>HH2_COA_CM_CCS_NEW</t>
   </si>
   <si>
     <t>HH2_CT</t>
@@ -471,7 +474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,16 +523,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5.392656000000001</v>
       </c>
       <c r="F2">
-        <v>34.05888</v>
+        <v>34.05888000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -558,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -582,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>810.3494229786608</v>
+        <v>818.2290596465845</v>
       </c>
       <c r="L3">
-        <v>1501.629429327508</v>
+        <v>1387.983876859377</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -596,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -614,16 +617,54 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.05888</v>
+        <v>16.88011860661748</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2967369502775519</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7152364799999911</v>
+        <v>0.354482490738961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>15.27001012745114</v>
+      </c>
+      <c r="J5">
+        <v>15.27001012745114</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.3206702126764738</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>tech</t>
   </si>
@@ -53,19 +53,13 @@
     <t>output_comm</t>
   </si>
   <si>
-    <t>HH2_BIO_SR_C_NEW</t>
+    <t>HH2_WE_ALK_DS_NEW</t>
   </si>
   <si>
     <t>HH2_NGA_CL_CCS_NEW</t>
   </si>
   <si>
-    <t>HH2_COA_CL_CCS_NEW</t>
-  </si>
-  <si>
-    <t>HH2_COA_CM_CCS_NEW</t>
-  </si>
-  <si>
-    <t>HH2_CT</t>
+    <t>HH2_WE_DT</t>
   </si>
   <si>
     <t>HH2_CU</t>
@@ -474,7 +468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,19 +517,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.392656000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>34.05888000000001</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02178016095559211</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -561,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -579,92 +573,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.367853537709895</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.480691933801575</v>
       </c>
       <c r="K3">
-        <v>818.2290596465845</v>
+        <v>328.9520159999997</v>
       </c>
       <c r="L3">
-        <v>1387.983876859377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>16.88011860661748</v>
-      </c>
-      <c r="J4">
-        <v>0.2967369502775519</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.354482490738961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>15.27001012745114</v>
-      </c>
-      <c r="J5">
-        <v>15.27001012745114</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.3206702126764738</v>
+        <v>330.6833664732822</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>tech</t>
   </si>
@@ -59,10 +59,22 @@
     <t>HH2_NGA_CL_CCS_NEW</t>
   </si>
   <si>
+    <t>IMP_HH2_DMY_TECH</t>
+  </si>
+  <si>
     <t>HH2_WE_DT</t>
   </si>
   <si>
     <t>HH2_CU</t>
+  </si>
+  <si>
+    <t>HH2_CT</t>
+  </si>
+  <si>
+    <t>HH2_DT</t>
+  </si>
+  <si>
+    <t>HH2_WE_CU</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -526,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="G2">
-        <v>0.02178016095559211</v>
+        <v>0.2952094861634579</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -555,34 +567,224 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>331.4828772761377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.07026496565260069</v>
+      </c>
+      <c r="H4">
+        <v>64.4096149309657</v>
+      </c>
+      <c r="I4">
+        <v>11.2892227233467</v>
+      </c>
+      <c r="J4">
+        <v>151.1303733494461</v>
+      </c>
+      <c r="K4">
+        <v>698.9249818810962</v>
+      </c>
+      <c r="L4">
+        <v>558.9084466784436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>133.8077394240145</v>
+      </c>
+      <c r="I5">
+        <v>222.3082849065297</v>
+      </c>
+      <c r="J5">
+        <v>315.42674133912</v>
+      </c>
+      <c r="K5">
+        <v>265.083375076808</v>
+      </c>
+      <c r="L5">
+        <v>1425.405659362845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>380.0532665427975</v>
+      </c>
+      <c r="L6">
+        <v>18.16228638168864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.1493130513498708</v>
+      </c>
+      <c r="H7">
+        <v>0.6184168916092673</v>
+      </c>
+      <c r="I7">
+        <v>1.081080508940554</v>
+      </c>
+      <c r="J7">
+        <v>1.395142077015153</v>
+      </c>
+      <c r="K7">
+        <v>391.0088320797792</v>
+      </c>
+      <c r="L7">
+        <v>685.070074645024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.367853537709895</v>
-      </c>
-      <c r="J3">
-        <v>8.480691933801575</v>
-      </c>
-      <c r="K3">
-        <v>328.9520159999997</v>
-      </c>
-      <c r="L3">
-        <v>330.6833664732822</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>200.1484101853411</v>
+      </c>
+      <c r="H8">
+        <v>649.3453940517755</v>
+      </c>
+      <c r="I8">
+        <v>796.6039353163919</v>
+      </c>
+      <c r="J8">
+        <v>825.2101199645409</v>
+      </c>
+      <c r="K8">
+        <v>1264.929544419519</v>
+      </c>
+      <c r="L8">
+        <v>912.4535329319983</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/_4_Hydrogen.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>331.4828772761377</v>
+        <v>331.4828772761376</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.07026496565260069</v>
+        <v>0.07026496565260068</v>
       </c>
       <c r="H4">
         <v>64.4096149309657</v>
       </c>
       <c r="I4">
-        <v>11.2892227233467</v>
+        <v>11.28922272334671</v>
       </c>
       <c r="J4">
         <v>151.1303733494461</v>
@@ -670,7 +670,7 @@
         <v>265.083375076808</v>
       </c>
       <c r="L5">
-        <v>1425.405659362845</v>
+        <v>1425.405659362846</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -734,7 +734,7 @@
         <v>0.1493130513498708</v>
       </c>
       <c r="H7">
-        <v>0.6184168916092673</v>
+        <v>0.6184168916092672</v>
       </c>
       <c r="I7">
         <v>1.081080508940554</v>
@@ -746,7 +746,7 @@
         <v>391.0088320797792</v>
       </c>
       <c r="L7">
-        <v>685.070074645024</v>
+        <v>685.0700746450239</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -772,13 +772,13 @@
         <v>200.1484101853411</v>
       </c>
       <c r="H8">
-        <v>649.3453940517755</v>
+        <v>649.3453940517754</v>
       </c>
       <c r="I8">
         <v>796.6039353163919</v>
       </c>
       <c r="J8">
-        <v>825.2101199645409</v>
+        <v>825.210119964541</v>
       </c>
       <c r="K8">
         <v>1264.929544419519</v>
